--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H2">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I2">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J2">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N2">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O2">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P2">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q2">
-        <v>1.46616964514522</v>
+        <v>2.446879602834333</v>
       </c>
       <c r="R2">
-        <v>1.46616964514522</v>
+        <v>14.681277617006</v>
       </c>
       <c r="S2">
-        <v>7.957223581875413E-05</v>
+        <v>9.693590876110282E-05</v>
       </c>
       <c r="T2">
-        <v>7.957223581875413E-05</v>
+        <v>6.463155358823597E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H3">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I3">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J3">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N3">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P3">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q3">
-        <v>3135.100406908597</v>
+        <v>0.997975309203889</v>
       </c>
       <c r="R3">
-        <v>3135.100406908597</v>
+        <v>8.981777782835001</v>
       </c>
       <c r="S3">
-        <v>0.1701487612433103</v>
+        <v>3.953592297993068E-05</v>
       </c>
       <c r="T3">
-        <v>0.1701487612433103</v>
+        <v>3.954058136033751E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H4">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I4">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J4">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N4">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O4">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P4">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q4">
-        <v>3874.609032204701</v>
+        <v>4012.311318214072</v>
       </c>
       <c r="R4">
-        <v>3874.609032204701</v>
+        <v>36110.80186392665</v>
       </c>
       <c r="S4">
-        <v>0.2102835129870186</v>
+        <v>0.1589522604271235</v>
       </c>
       <c r="T4">
-        <v>0.2102835129870186</v>
+        <v>0.1589709892195681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H5">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I5">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J5">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.151276362838835</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N5">
-        <v>0.151276362838835</v>
+        <v>533.032654</v>
       </c>
       <c r="O5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q5">
-        <v>4.416658846344885</v>
+        <v>5238.082100255227</v>
       </c>
       <c r="R5">
-        <v>4.416658846344885</v>
+        <v>47142.73890229704</v>
       </c>
       <c r="S5">
-        <v>0.0002397017428481357</v>
+        <v>0.207512559247029</v>
       </c>
       <c r="T5">
-        <v>0.0002397017428481357</v>
+        <v>0.2075370097307235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.483861759368</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H6">
-        <v>47.483861759368</v>
+        <v>88.442497</v>
       </c>
       <c r="I6">
-        <v>0.6192484517910042</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J6">
-        <v>0.6192484517910042</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0502182348554785</v>
+        <v>0.323258</v>
       </c>
       <c r="N6">
-        <v>0.0502182348554785</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q6">
-        <v>2.384555721677017</v>
+        <v>9.529914898408666</v>
       </c>
       <c r="R6">
-        <v>2.384555721677017</v>
+        <v>85.76923408567799</v>
       </c>
       <c r="S6">
-        <v>0.0001294150583709905</v>
+        <v>0.0003775383799117649</v>
       </c>
       <c r="T6">
-        <v>0.0001294150583709905</v>
+        <v>0.0003775828639470232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.483861759368</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H7">
-        <v>47.483861759368</v>
+        <v>88.442497</v>
       </c>
       <c r="I7">
-        <v>0.6192484517910042</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J7">
-        <v>0.6192484517910042</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>107.381304101442</v>
+        <v>0.028067</v>
       </c>
       <c r="N7">
-        <v>107.381304101442</v>
+        <v>0.056134</v>
       </c>
       <c r="O7">
-        <v>0.4468760850577424</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P7">
-        <v>0.4468760850577424</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q7">
-        <v>5098.878999493528</v>
+        <v>0.8274385210996668</v>
       </c>
       <c r="R7">
-        <v>5098.878999493528</v>
+        <v>4.964631126598</v>
       </c>
       <c r="S7">
-        <v>0.2767273238144321</v>
+        <v>3.277991483268321E-05</v>
       </c>
       <c r="T7">
-        <v>0.2767273238144321</v>
+        <v>2.185585145075265E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.483861759368</v>
+        <v>50.60572933333333</v>
       </c>
       <c r="H8">
-        <v>47.483861759368</v>
+        <v>151.817188</v>
       </c>
       <c r="I8">
-        <v>0.6192484517910042</v>
+        <v>0.6299988405266995</v>
       </c>
       <c r="J8">
-        <v>0.6192484517910042</v>
+        <v>0.6299988405266995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>132.71044520441</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N8">
-        <v>132.71044520441</v>
+        <v>0.165998</v>
       </c>
       <c r="O8">
-        <v>0.5522853786837219</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P8">
-        <v>0.5522853786837219</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q8">
-        <v>6301.604434110386</v>
+        <v>4.200224928937333</v>
       </c>
       <c r="R8">
-        <v>6301.604434110386</v>
+        <v>25.20134957362399</v>
       </c>
       <c r="S8">
-        <v>0.3420018656967032</v>
+        <v>0.0001663966710973254</v>
       </c>
       <c r="T8">
-        <v>0.3420018656967032</v>
+        <v>0.0001109441846925386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,681 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H9">
+        <v>151.817188</v>
+      </c>
+      <c r="I9">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J9">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.101555</v>
+      </c>
+      <c r="O9">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P9">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q9">
+        <v>1.713088280815555</v>
+      </c>
+      <c r="R9">
+        <v>15.41779452734</v>
+      </c>
+      <c r="S9">
+        <v>6.786593385980108E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.787393026693554E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H10">
+        <v>151.817188</v>
+      </c>
+      <c r="I10">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J10">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N10">
+        <v>408.296951</v>
+      </c>
+      <c r="O10">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P10">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q10">
+        <v>6887.388329977087</v>
+      </c>
+      <c r="R10">
+        <v>61986.49496979379</v>
+      </c>
+      <c r="S10">
+        <v>0.2728516948621382</v>
+      </c>
+      <c r="T10">
+        <v>0.2728838440291113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H11">
+        <v>151.817188</v>
+      </c>
+      <c r="I11">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J11">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N11">
+        <v>533.032654</v>
+      </c>
+      <c r="O11">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P11">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q11">
+        <v>8991.502071384104</v>
+      </c>
+      <c r="R11">
+        <v>80923.51864245694</v>
+      </c>
+      <c r="S11">
+        <v>0.3562085455317633</v>
+      </c>
+      <c r="T11">
+        <v>0.3562505163467635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H12">
+        <v>151.817188</v>
+      </c>
+      <c r="I12">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J12">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.323258</v>
+      </c>
+      <c r="N12">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P12">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q12">
+        <v>16.35870685283466</v>
+      </c>
+      <c r="R12">
+        <v>147.228361675512</v>
+      </c>
+      <c r="S12">
+        <v>0.0006480687129432792</v>
+      </c>
+      <c r="T12">
+        <v>0.0006481450726275134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H13">
+        <v>151.817188</v>
+      </c>
+      <c r="I13">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J13">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.028067</v>
+      </c>
+      <c r="N13">
+        <v>0.056134</v>
+      </c>
+      <c r="O13">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P13">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q13">
+        <v>1.420351005198667</v>
+      </c>
+      <c r="R13">
+        <v>8.522106031191999</v>
+      </c>
+      <c r="S13">
+        <v>5.626881489763291E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.751696323769543E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>47.483861759368</v>
-      </c>
-      <c r="H9">
-        <v>47.483861759368</v>
-      </c>
-      <c r="I9">
-        <v>0.6192484517910042</v>
-      </c>
-      <c r="J9">
-        <v>0.6192484517910042</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="N9">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="O9">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="P9">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="Q9">
-        <v>7.183185900499235</v>
-      </c>
-      <c r="R9">
-        <v>7.183185900499235</v>
-      </c>
-      <c r="S9">
-        <v>0.0003898472214979335</v>
-      </c>
-      <c r="T9">
-        <v>0.0003898472214979335</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.720422</v>
+      </c>
+      <c r="I14">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J14">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.08299899999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.165998</v>
+      </c>
+      <c r="O14">
+        <v>0.0002641221862538864</v>
+      </c>
+      <c r="P14">
+        <v>0.0001761022045687984</v>
+      </c>
+      <c r="Q14">
+        <v>0.01993143519266666</v>
+      </c>
+      <c r="R14">
+        <v>0.119588611156</v>
+      </c>
+      <c r="S14">
+        <v>7.896063954581835E-07</v>
+      </c>
+      <c r="T14">
+        <v>5.264662880237782E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.720422</v>
+      </c>
+      <c r="I15">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J15">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.101555</v>
+      </c>
+      <c r="O15">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P15">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q15">
+        <v>0.008129161801111113</v>
+      </c>
+      <c r="R15">
+        <v>0.07316245621</v>
+      </c>
+      <c r="S15">
+        <v>3.220459583479152E-07</v>
+      </c>
+      <c r="T15">
+        <v>3.220839039039916E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.720422</v>
+      </c>
+      <c r="I16">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J16">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N16">
+        <v>408.296951</v>
+      </c>
+      <c r="O16">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P16">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q16">
+        <v>32.68290067036911</v>
+      </c>
+      <c r="R16">
+        <v>294.146106033322</v>
+      </c>
+      <c r="S16">
+        <v>0.001294770152876045</v>
+      </c>
+      <c r="T16">
+        <v>0.001294922711143487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.720422</v>
+      </c>
+      <c r="I17">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J17">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N17">
+        <v>533.032654</v>
+      </c>
+      <c r="O17">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P17">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q17">
+        <v>42.66760562888756</v>
+      </c>
+      <c r="R17">
+        <v>384.008450659988</v>
+      </c>
+      <c r="S17">
+        <v>0.001690325556478388</v>
+      </c>
+      <c r="T17">
+        <v>0.001690524721664375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.720422</v>
+      </c>
+      <c r="I18">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J18">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.323258</v>
+      </c>
+      <c r="N18">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P18">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q18">
+        <v>0.07762739162533333</v>
+      </c>
+      <c r="R18">
+        <v>0.6986465246279999</v>
+      </c>
+      <c r="S18">
+        <v>3.075297102170165E-06</v>
+      </c>
+      <c r="T18">
+        <v>3.075659453740235E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.720422</v>
+      </c>
+      <c r="I19">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J19">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.028067</v>
+      </c>
+      <c r="N19">
+        <v>0.056134</v>
+      </c>
+      <c r="O19">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P19">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.006740028091333334</v>
+      </c>
+      <c r="R19">
+        <v>0.04044016854800001</v>
+      </c>
+      <c r="S19">
+        <v>2.670138519900823E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.780302088695452E-07</v>
       </c>
     </row>
   </sheetData>
